--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_95.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_95.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.147</v>
+        <v>2.358</v>
       </c>
       <c r="J3" t="n">
-        <v>28.2</v>
+        <v>28.62</v>
       </c>
       <c r="K3" t="n">
-        <v>1087.07</v>
+        <v>1211.8</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>3.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1091.3117</v>
+        <v>1177.6008</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9845</v>
+        <v>2.1498</v>
       </c>
       <c r="J4" t="n">
-        <v>26.04</v>
+        <v>14.26</v>
       </c>
       <c r="K4" t="n">
-        <v>927.6</v>
+        <v>550.4400000000001</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1003.7141</v>
+        <v>1062.9296</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>9.9892</v>
+        <v>10.8059</v>
       </c>
       <c r="J5" t="n">
-        <v>27.32</v>
+        <v>26.97</v>
       </c>
       <c r="K5" t="n">
-        <v>4900.05</v>
+        <v>5233.14</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>12.02</v>
+        <v>11.68</v>
       </c>
       <c r="R5" t="n">
-        <v>4254.3656</v>
+        <v>4468.5327</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>11.9074</v>
+        <v>13.039</v>
       </c>
       <c r="J6" t="n">
-        <v>27.68</v>
+        <v>27.37</v>
       </c>
       <c r="K6" t="n">
-        <v>5916.98</v>
+        <v>6406.8</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.85</v>
+        <v>9.92</v>
       </c>
       <c r="R6" t="n">
-        <v>3486.2159</v>
+        <v>3796.4643</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2369</v>
+        <v>5.6997</v>
       </c>
       <c r="J7" t="n">
-        <v>33.06</v>
+        <v>33.14</v>
       </c>
       <c r="K7" t="n">
-        <v>3108.15</v>
+        <v>3390.71</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>7.06</v>
+        <v>7.11</v>
       </c>
       <c r="R7" t="n">
-        <v>2499.4231</v>
+        <v>2719.3138</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>61.2492</v>
+        <v>68.0895</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.32</v>
       </c>
       <c r="K8" t="n">
-        <v>4730.08</v>
+        <v>5282.31</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>13.17</v>
+        <v>13.43</v>
       </c>
       <c r="R8" t="n">
-        <v>4661.0913</v>
+        <v>5139.2255</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>12.5675</v>
+        <v>14.7669</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="K9" t="n">
-        <v>431.48</v>
+        <v>481.38</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>343.6514</v>
+        <v>385.7077</v>
       </c>
     </row>
   </sheetData>
